--- a/data/hotels_by_city/Houston/Houston_shard_396.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_396.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d11695787-Reviews-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Hyatt-Place-Houston-NW-Vintage-Park.h15974818.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,876 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r601243993-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>11695787</t>
+  </si>
+  <si>
+    <t>601243993</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>New Hyatt Place!</t>
+  </si>
+  <si>
+    <t>The hotel seems relatively new with a gym with new equipment and a nice pool. The lobby area had a bunch of hang out places and areas to meet. Free breakfast at Hyatt beats any other hotel chain’s free breakfast.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r601122558-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601122558</t>
+  </si>
+  <si>
+    <t>Nice business hotel but so new that there are some issues to address</t>
+  </si>
+  <si>
+    <t>Our company's office is quite near this property so this is on our "recommended list".  It is made for the business traveler and the rooms reflect this. They are well appointed but I was surprised that the desk-workstation did not have any USB plugs which are considered commonplace today.  Given that the property is quite new and construction is happening next door, you'd best pay attention or you'll miss the entrance.  Also there is only only 1 entrance/exit access point so to get out, you have to make a U-turn in the front lot since there is no other way out.Staff is extremely professional but they are still learning the area (i.e. restaurants). Admittedly these are all small things however until these addressed, I can only give it 4/5. I would expect, however, that by my next trip to our office, they well certainly score 5/5.  As to things they can't fix i.e. road noise from the highway, Just ask for a room in the back of the hotel which should fix the problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our company's office is quite near this property so this is on our "recommended list".  It is made for the business traveler and the rooms reflect this. They are well appointed but I was surprised that the desk-workstation did not have any USB plugs which are considered commonplace today.  Given that the property is quite new and construction is happening next door, you'd best pay attention or you'll miss the entrance.  Also there is only only 1 entrance/exit access point so to get out, you have to make a U-turn in the front lot since there is no other way out.Staff is extremely professional but they are still learning the area (i.e. restaurants). Admittedly these are all small things however until these addressed, I can only give it 4/5. I would expect, however, that by my next trip to our office, they well certainly score 5/5.  As to things they can't fix i.e. road noise from the highway, Just ask for a room in the back of the hotel which should fix the problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r599963317-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>599963317</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and well appointed. Very modern fixtures, crystal clear TV with plenty of popular channels. Comfortable bed. Staff could have been a bit more attentive, although might have been distracted by a very loud and inconsiderate group in the bar/lounge (which is literally 6 feet from the front desk, NOT a great idea). </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r596802073-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>596802073</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Time to Relax</t>
+  </si>
+  <si>
+    <t>I checked in for a two day stay that got extended the staff was excellent to work with because I wouldn't know if I was going to need another night till I got back to hotel the staff was very good to work with me room was clean and quiet if I go back to Houston and that area I will most definitely stay there again and for those with kids they do have a pool it has rooms for meetings and overall was clean and I enjoyed my stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r595228174-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595228174</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Great location BUT.....</t>
+  </si>
+  <si>
+    <t>The hotel is very convenient to St. Lukes Vintage Hospital, so we stayed there while visiting a family member in the hospital. The hotel is modern looking and staff were very friendly and helpful. Rooms were modern and clean. But there were a couple negatives. First was the door to the bathroom, it's a slider door and it was noisy. Second, the window was covered with roll down shades, one would let light in the other was a room darkening shade BUT light continued to come through a small slit between the shade and the window all night (secondary to lighting on the outside of the building.  So if you like sleeping in an entirely dark room, this isn't the hotel for you. But the thing that bothered me the most about the hotel was the proximity to Highway 248, our room had a view of the highway which was fine, BUT we heard traffic all night long.  If you do stay in this hotel request a room on the opposite side of the hotel that doesn't face the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The hotel is very convenient to St. Lukes Vintage Hospital, so we stayed there while visiting a family member in the hospital. The hotel is modern looking and staff were very friendly and helpful. Rooms were modern and clean. But there were a couple negatives. First was the door to the bathroom, it's a slider door and it was noisy. Second, the window was covered with roll down shades, one would let light in the other was a room darkening shade BUT light continued to come through a small slit between the shade and the window all night (secondary to lighting on the outside of the building.  So if you like sleeping in an entirely dark room, this isn't the hotel for you. But the thing that bothered me the most about the hotel was the proximity to Highway 248, our room had a view of the highway which was fine, BUT we heard traffic all night long.  If you do stay in this hotel request a room on the opposite side of the hotel that doesn't face the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r595043638-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595043638</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Clean, modern, friendly</t>
+  </si>
+  <si>
+    <t>Recently we spent three days and two nights at this relatively new hotel and were very pleased. Ashley, the young lady at the front desk, was extremely sweet, and accommodating. The room was spacious and clean with lots of space in the bathroom. It had a very nice oversized shower with loads of space to put toiletries. There is a bar and food available in the sleek lobby area. Breakfast was included with hot and cold choices. It was very good; sausage one day and bacon the next day, roasted potatoes, cage free eggs, breads, grits, fruit, juices, etc. It was a great value, too. I would definitely return here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently we spent three days and two nights at this relatively new hotel and were very pleased. Ashley, the young lady at the front desk, was extremely sweet, and accommodating. The room was spacious and clean with lots of space in the bathroom. It had a very nice oversized shower with loads of space to put toiletries. There is a bar and food available in the sleek lobby area. Breakfast was included with hot and cold choices. It was very good; sausage one day and bacon the next day, roasted potatoes, cage free eggs, breads, grits, fruit, juices, etc. It was a great value, too. I would definitely return here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r591511521-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591511521</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Excellent value and service!</t>
+  </si>
+  <si>
+    <t>This hotel is absolutely spotless and the staff all go above and beyond to give you a big, Texas smile and help you with anything you need.  Rooms are spacious and clean and breakfast is wonderful.  Great experience!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r591037353-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591037353</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Very Impressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful hotel. Very modern with great complimentary breakfast. Room has nice sitting area divided away from bed. Relaxing shower too. Gave 4 stars because room was a little warm during the night. Overall great stay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r585662563-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585662563</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Recent stay</t>
+  </si>
+  <si>
+    <t>Overall stay was good.  The room was very nice and quiet, bed was comfortable.  Breakfast was very good everyday.  Room service could be improved.  Replaced towels everyday but the last day, picked up used ones and did not leave any clean towels.  Did not make the bed until the last day.  Did not change out the used cups/glasses.  Would still recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r570578449-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570578449</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Stay at Hyatt Place Houston Vintage Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was clean, spacious and the service was wonderful! Our stay was for a wedding so we had a large group staying.  Everyone was raving about the attention to detail by the staff and their friendliness. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r570000117-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570000117</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Excellent Throughout</t>
+  </si>
+  <si>
+    <t>Very quick check-in and out, consistently clean room, plenty of safe parking, great location, consistently excellent and varied breakfast, courteous staff, overall great value. Third time I've stayed at this location and would highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r569760943-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569760943</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Great Staff!</t>
+  </si>
+  <si>
+    <t>Great location. New building. Good complimentary breakfast, Wifi has good connnection.The staff and service were AMAZING! They were always welcoming &amp; eager to help. Thank you all! I highly recommend this hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r565705501-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565705501</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>2 days no room service</t>
+  </si>
+  <si>
+    <t>I stay 2 weeks there, each week there is one day no room service, no one came to clean my room, I got to worry is my room cleaned everyday I back there. And that door is with visible gap with door frame, can hear noise very loud from the room.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r557245703-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557245703</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Globalist, worst Hyatt experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check in was terrible.  I’m a Hyatt globalist and stay all over the world.  This location was abysmal.  Staff checked me into a room facing highway, which was very noisy.  I asked to change rooms, they said none were available.  Then another manager came out said FEMA takes priority and no rooms were clean.  This was 6pm.  Finally after many complaints got a room where it was semi quiet.  Had stains on the floor and hair on the counter in bathroom.  Poorly managed and run Hyatt, probably the worst I’ve been to in my travels.  </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r555262458-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555262458</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Stay here with your family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was just what my family of 4 needed. We slept well, enjoyed the shower, and had a delicious breakfast. We will stay here again when we're in Houston next time, and we will recommend this hotel to friends. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r553818494-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553818494</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>We thought the hotel was very clean, quiet, and staff was courteous. The breakfasts were hearty and offered a large variety. It would have been nice if the staff kept coffee refilled and breakfast items better stocked when depleted.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r552580798-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552580798</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t>Horrible customer service, staff only work there to collect a pay check not because they care of their guest experience. It was my first time at that hotel and the last. A total Hyatt disappointment!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r552634373-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552634373</t>
+  </si>
+  <si>
+    <t>The best place to stay off TX 249</t>
+  </si>
+  <si>
+    <t>This location is perfect for shopping and restaurants without having to go into Houston.  The rooms are very comfortable and the amenities are great as well - because of this we have stayed here several times and wouldn't think twice about coming back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r548472856-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548472856</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Recently refreshed, comfortable</t>
+  </si>
+  <si>
+    <t>If there was damage to the property from the floods, you'd never know it.  Everything was updated and fresh.  The room was a bit smaller than other Hyatt Places and didn't have a microwave, but it was comfortable and quiet.  You could use the microwave in the buffet area, but that's not very convenient. The on-prem food menu has changed.  I understand this is a corporate decision and not that of the property, but the changes were disappointing in that there were no meat-free options - and they were out of salad greens to boot.  The staff was very nice and let me concoct something custom from a few different menu items, which sufficed for the late night arrival.   You'll definitely need a vehicle here; there's nothing within walking distance, but a quick drive will get you to the Vintage Park area where there are a plethora of restaurants and grocery stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>If there was damage to the property from the floods, you'd never know it.  Everything was updated and fresh.  The room was a bit smaller than other Hyatt Places and didn't have a microwave, but it was comfortable and quiet.  You could use the microwave in the buffet area, but that's not very convenient. The on-prem food menu has changed.  I understand this is a corporate decision and not that of the property, but the changes were disappointing in that there were no meat-free options - and they were out of salad greens to boot.  The staff was very nice and let me concoct something custom from a few different menu items, which sufficed for the late night arrival.   You'll definitely need a vehicle here; there's nothing within walking distance, but a quick drive will get you to the Vintage Park area where there are a plethora of restaurants and grocery stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r545889118-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545889118</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Terrible experience</t>
+  </si>
+  <si>
+    <t>This hotel has gone up in price about $30 since the flood in Houston last August.  False smoke alarm went off at 5:30 a.m.  There was  no notification from staff about whether or not to leave or stay (some people went up and down 4 - 5 flights of stairs because elevators were shut down at the time).   Also, only one pot of regular coffee available for large hotel.  The kitchen staff was not attentive and when asked to refill pot, was rude and brought back a pot with "colored" water in it.  Will not stay here again.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r544116305-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544116305</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Just Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>So new and comforting. Update atmosphere and warm. Pet friendly and very clean. The breakfast was delicious, fresh and hot. Loved it and it was reasonably priced. The hotel was well lit made me feel safe!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r543743798-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543743798</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Poor quality breakfast</t>
+  </si>
+  <si>
+    <t>Although the rooms were clean and comfortable and the front desk as well as floor staff was friendly and always ready to be of help, their breakfast service was horrible. If the hotel is not ready to offer breakfast, they shouldn't offer it</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r540186434-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540186434</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Wonderful “Boutique” Hyatt in NW Houston</t>
+  </si>
+  <si>
+    <t>A great, smaller Hyatt, very warm, inviting, and fantastic “suite-like” rooms. Great location in NW Houston and very close to George Bush Airport. Perfect for a business traveler with spacious desk and separate seating area. Loved it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r537000872-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537000872</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Construction happening here</t>
+  </si>
+  <si>
+    <t>There is a great dea l of construction going on. The hotel smells of some type of finishing glue or paint? There must be better places to stay nearby. The staff is sweet but was not able to provide much advice about nearby restaurants.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r516147445-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516147445</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r515067726-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>515067726</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r512030542-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>512030542</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hotel was in the perfect location for me to get to where I needed to be without having to rush. The room was in great condition and was better than I had expected, incredibly comfortable and had the perfect desk space I needed to tend to my business. Staff was very helpful with providing information regarding extending my stay an extra day and the overall experience was great. I will definitely be returning  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r507983203-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507983203</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r507650383-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507650383</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r506223616-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506223616</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>The hotel was very accommodating as I made reservations for the wrong date; he immediately corrected the error and checked us in.  I always check the beds and bathroom upon entering the room.  I pulled the covers back on the bed and sure enough there was a long black hair suggesting the sheets were not changed.  I asked that they be changed immediately, but housekeeping was gone and we changed rooms instead.  The breakfast was really good (waffles, sausage links, fruit, toast, cereal, potatoes, eggs).  I also loved the fact we were able to enjoy our breakfast on the patio!! The only drawback to breakfast was they started pulling breakfast items 10 mins early.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was very accommodating as I made reservations for the wrong date; he immediately corrected the error and checked us in.  I always check the beds and bathroom upon entering the room.  I pulled the covers back on the bed and sure enough there was a long black hair suggesting the sheets were not changed.  I asked that they be changed immediately, but housekeeping was gone and we changed rooms instead.  The breakfast was really good (waffles, sausage links, fruit, toast, cereal, potatoes, eggs).  I also loved the fact we were able to enjoy our breakfast on the patio!! The only drawback to breakfast was they started pulling breakfast items 10 mins early.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r505346381-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505346381</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This hotel was super nice and clean.  The rooms were big and comfortable.  The staff was so nice and acommadating to us.  We had three rooms and they were all so very nice. There was a sectional sofa in every room that made it comfortable.  Wish every hotel we stay in is as nice as this Hayatt.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r504325284-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504325284</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Wedding trip</t>
+  </si>
+  <si>
+    <t>We were in Houston for a family wedding and this was within five minutes of our family with easy axis to the freeways. It was a wonderful location for us and the staff was very friendly and helpful. The beds were comfortable and slept well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r503099099-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503099099</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay in Houston</t>
+  </si>
+  <si>
+    <t>The location is a bit further from the city center but it is also cheaper then some of the properties closer to the city.  The property is clean and the rooms are pretty large.  My only complain was about the breakfast.  The hotel was pretty booked when we were there and the staff seemed to be overwhelmed.  They were unable to keep up with the pace of the amount of the guests that were there in the morning.  So, many items for breakfast ran out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r501702125-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501702125</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Maybe because its a new hotel that we had this bad experience.First let me start by saying that the staff was very friendly.The breakfast was the main reason for the bad experience,The area was dirty and unkept.But to give the Hyatt credit, i kind of chalk it up to the hotel being new.It was not replenished, even though it was 9 in the morning.I kind of brushed it off to the place</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r496042600-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496042600</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>BREAKFAST TIL 10AM/9:37AMHYATT TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakfast was served until 10AM. I arrived at the breakfast area at 9:37 AM to find a woman employee cleaning up the remaining breakfast items and putting everything away. False advertising at it best.  I grabbed a bagel and asked for a knife since there was no silverware available, and she huffed a huge breath and marched off. Two minutes later she returned and shoved the knife at me with a glare. How dare I want to eat breakfast during breakfast hours. Horrible experience. I left 3 days early. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r493821947-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493821947</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect location . Bed was incredibly comfortable . Close to cute shopping center and stores . Staff was unfriendly during check in . Breakfast options and availability was poor . The rate was great for the room . </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r489208171-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489208171</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Beautiful new facility</t>
+  </si>
+  <si>
+    <t>Fantastic new facility. Best Hyatt experience I've had. Definately a model to replicate throughout the country, unlike the very poor experience we last had at the San Diego Mission Bay Spa and Marina (our last Hyatt hotel experience).</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r489272544-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489272544</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r487501943-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487501943</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Beautiful clean but noisy property</t>
+  </si>
+  <si>
+    <t>Gorgeous and clean property. Awesome breakfast.  It has black out curtains, but the road noise from 249 was pretty loud.  The beds were very nice and comfortable.  It would have been nice to have a bath tub.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r478587575-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478587575</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for a weekend visit to Houston to see Cirque Du Soleil Kurios. The hotel is new and very nice. Would definitely stay here again.  The only complaint I had was some of the front desk staff and Gallery host were a little rude. </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r474846816-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474846816</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel has wonderful staff members, nice layout in the rooms (slight separation between sleeping and sitting area) and amenities within walking distance (a park, convenience store, bars). We will definitely stay there again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r474230092-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474230092</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Chronixx's Concert Weekend!</t>
+  </si>
+  <si>
+    <t>I Booked a double room for Myself and My Family! It was Really Nice. It was the Perfect amount of space for all Of Us. There is also Morning Breakfast that was very good with a vast variety of breakfast treats. The Staff was very Nice, and very Helpful. We enjoyed our stay so well we Booked another Night! The Hyatt also has a Laundry room where you can wash Your clothing for just $.25 which I thought was awesome. We were actually 30 minutes away from all the Events we were attending, which was fine it gave us a chance to see Houston. We Enjoyed Our stay and will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I Booked a double room for Myself and My Family! It was Really Nice. It was the Perfect amount of space for all Of Us. There is also Morning Breakfast that was very good with a vast variety of breakfast treats. The Staff was very Nice, and very Helpful. We enjoyed our stay so well we Booked another Night! The Hyatt also has a Laundry room where you can wash Your clothing for just $.25 which I thought was awesome. We were actually 30 minutes away from all the Events we were attending, which was fine it gave us a chance to see Houston. We Enjoyed Our stay and will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r473305765-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473305765</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r470395579-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470395579</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>New location, great rooms, average experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Hyatt World member, I chose to stay at this hotel as a new property. I was very disappointed to experience that the staff was not very engaged. As for the property itself, it  was a nice clean and a modernly decorated hotel, although service was poor. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r469765537-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469765537</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r467981575-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467981575</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r465528433-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465528433</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Great value/ Excellent Service</t>
+  </si>
+  <si>
+    <t>The facility is very new- clean.  The staff is helpful.  The only downside if you want to sleep in can be road noise in daytime hours.  Not so much at night.   There is breakfast, but I had commitments.     ....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r462154709-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462154709</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Lack of attention to detail and follow up</t>
+  </si>
+  <si>
+    <t>Staff does not pay attention to detail. Staff does not respond to room maintenance requests. Staff does not clean room well. Overall experience on scale of 1 to 10 with one being negative I would rate 3.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r461338003-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461338003</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r461020342-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461020342</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>ECNL Showcase event</t>
+  </si>
+  <si>
+    <t>Excellent Hotel. Very Clean. Great service. Will stay here again next year. The wi-fi throughout the hotel is as good as I have had at any hotel, as they exceed speeds of over 75 MBPS.Decent breakfast and the elevators are very fast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r460737337-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460737337</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Beautiful trendy hotel</t>
+  </si>
+  <si>
+    <t>This hotel is brand new and very modern in style. Staff was very helpful. They offer wine and mixed drinks and have a small bar. There is a small kitchen that offers some food choices 24hrs a day. My only disappointment in this hotel was the Breakfast. There were very few choices and non of it was tasty, so we only ate there one time. The room was perfect. Bed was comfortable, multiple pillows, soft linens. Bathroom very trendy with big shower. Everything was very clean and kept that way all week by the housekeeping staff.  I would have given this hotel 5 stars if not for the Breakfast. If they fix that, this place will be the top spot to stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is brand new and very modern in style. Staff was very helpful. They offer wine and mixed drinks and have a small bar. There is a small kitchen that offers some food choices 24hrs a day. My only disappointment in this hotel was the Breakfast. There were very few choices and non of it was tasty, so we only ate there one time. The room was perfect. Bed was comfortable, multiple pillows, soft linens. Bathroom very trendy with big shower. Everything was very clean and kept that way all week by the housekeeping staff.  I would have given this hotel 5 stars if not for the Breakfast. If they fix that, this place will be the top spot to stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r458454991-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458454991</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>👍🏿👍🏿👍🏿👍🏿</t>
+  </si>
+  <si>
+    <t>Excellent customer service, the guest rooms were very neat. I personally enjoyed my stay at this location. Very close to the highway, beautiful attendants. Breakfast has a variety of drinks and food to choose from</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r460577962-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460577962</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r457875532-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457875532</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Business in Houston</t>
+  </si>
+  <si>
+    <t>Needed a nice place to rest my weary head.  Just landed late in Houston and had to drive out near College Station in the morning.I wanted a three star or better hotel within reason.  The hotel checked all the boxes. Clean, comfortable, quite, not crazy expensive. Overall I was well pleased. I like the decor in the room and in the bath especially.  I prefer no bath tub and a good shower. If you need a tub it is not the best, or they might have rooms with a tub. Like most breakfasts that come included it was very pedestrian.  I dont understand why they bother if they are not going to include better health options. My review stops here and the rest is just filler for the 200 work requirement.Now I am just getting angry at trip advisor.  I want my review to count but really.... unless you only want people that have a litany of complaints to list making 200 words a requirement is counter productive.  People are not going to say the place is nice if the just dont have that much to say, and it is worth while to get the opinions of everyone. MoreShow less</t>
+  </si>
+  <si>
+    <t>Needed a nice place to rest my weary head.  Just landed late in Houston and had to drive out near College Station in the morning.I wanted a three star or better hotel within reason.  The hotel checked all the boxes. Clean, comfortable, quite, not crazy expensive. Overall I was well pleased. I like the decor in the room and in the bath especially.  I prefer no bath tub and a good shower. If you need a tub it is not the best, or they might have rooms with a tub. Like most breakfasts that come included it was very pedestrian.  I dont understand why they bother if they are not going to include better health options. My review stops here and the rest is just filler for the 200 work requirement.Now I am just getting angry at trip advisor.  I want my review to count but really.... unless you only want people that have a litany of complaints to list making 200 words a requirement is counter productive.  People are not going to say the place is nice if the just dont have that much to say, and it is worth while to get the opinions of everyone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r456088341-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456088341</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r452156233-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452156233</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>New, friendly, thoughtfully designed for business travelers</t>
+  </si>
+  <si>
+    <t>The Hyatt Place property in NW Houston by Vintage Park is so new, I mean, really new so much so that the happy hour liquor permit hasn't arrived. 1/15/17 Contemporary fresh design with thoughtful amenities for business travelers. Like the long community table like seating with lots of USB and electric outlets. Like the printer and desktop PCs in the same place. Cozy nooks for private business conversations, big windows, lots of light, great seating for breakfast and a separate area for happy hour/after hours relaxing. Nice covered outdoor patio adjacent to the breakfast area and lounge area. Gym, heated pool, real coffee instead of that water-like coffee most serve are +++. The staff, Lacy is who I met today, is very friendly and welcoming. The rooms are lovely and comfortable. Meeting space (2 rooms) has VA projectors, flat screens, and versatile seating. Again, thoughtful, And the dividers are well padded so unless that screaming finance lunatic is in the next room, you should be good to go with that sales presentation. Conveniently located by Lone Star College University Park, Noble Energy, Vintage Park center, it's easy access via the Chasewood exit. I do wish they had a small directional sign to give a heads-up for the driveway because the wooded lot before the turn-in obscures the Hyatt sign until you're right on it. This is a welcome addition to the hotel and business meeting space selection in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Hyatt Place property in NW Houston by Vintage Park is so new, I mean, really new so much so that the happy hour liquor permit hasn't arrived. 1/15/17 Contemporary fresh design with thoughtful amenities for business travelers. Like the long community table like seating with lots of USB and electric outlets. Like the printer and desktop PCs in the same place. Cozy nooks for private business conversations, big windows, lots of light, great seating for breakfast and a separate area for happy hour/after hours relaxing. Nice covered outdoor patio adjacent to the breakfast area and lounge area. Gym, heated pool, real coffee instead of that water-like coffee most serve are +++. The staff, Lacy is who I met today, is very friendly and welcoming. The rooms are lovely and comfortable. Meeting space (2 rooms) has VA projectors, flat screens, and versatile seating. Again, thoughtful, And the dividers are well padded so unless that screaming finance lunatic is in the next room, you should be good to go with that sales presentation. Conveniently located by Lone Star College University Park, Noble Energy, Vintage Park center, it's easy access via the Chasewood exit. I do wish they had a small directional sign to give a heads-up for the driveway because the wooded lot before the turn-in obscures the Hyatt sign until you're right on it. This is a welcome addition to the hotel and business meeting space selection in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r451614068-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451614068</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1408,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,80 +1440,3741 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>126</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" t="s">
+        <v>140</v>
+      </c>
+      <c r="L18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>126</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" t="s">
+        <v>158</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" t="s">
+        <v>164</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" t="s">
+        <v>174</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" t="s">
+        <v>179</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>184</v>
+      </c>
+      <c r="O26" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>184</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" t="s">
+        <v>192</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>184</v>
+      </c>
+      <c r="O28" t="s">
+        <v>93</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>196</v>
+      </c>
+      <c r="O29" t="s">
+        <v>74</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>198</v>
+      </c>
+      <c r="J30" t="s">
+        <v>199</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" t="s">
+        <v>203</v>
+      </c>
+      <c r="L31" t="s">
+        <v>204</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>196</v>
+      </c>
+      <c r="O31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>196</v>
+      </c>
+      <c r="O32" t="s">
+        <v>74</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>212</v>
+      </c>
+      <c r="J33" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" t="s">
+        <v>214</v>
+      </c>
+      <c r="L33" t="s">
+        <v>215</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>196</v>
+      </c>
+      <c r="O33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>217</v>
+      </c>
+      <c r="J34" t="s">
+        <v>218</v>
+      </c>
+      <c r="K34" t="s">
+        <v>219</v>
+      </c>
+      <c r="L34" t="s">
+        <v>220</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>196</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>222</v>
+      </c>
+      <c r="J35" t="s">
+        <v>223</v>
+      </c>
+      <c r="K35" t="s">
+        <v>203</v>
+      </c>
+      <c r="L35" t="s">
+        <v>224</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>196</v>
+      </c>
+      <c r="O35" t="s">
+        <v>74</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>226</v>
+      </c>
+      <c r="J36" t="s">
+        <v>227</v>
+      </c>
+      <c r="K36" t="s">
+        <v>228</v>
+      </c>
+      <c r="L36" t="s">
+        <v>229</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>230</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>232</v>
+      </c>
+      <c r="J37" t="s">
+        <v>233</v>
+      </c>
+      <c r="K37" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" t="s">
+        <v>235</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>230</v>
+      </c>
+      <c r="O37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>237</v>
+      </c>
+      <c r="J38" t="s">
+        <v>238</v>
+      </c>
+      <c r="K38" t="s">
+        <v>239</v>
+      </c>
+      <c r="L38" t="s">
+        <v>240</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>241</v>
+      </c>
+      <c r="O38" t="s">
+        <v>74</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J39" t="s">
+        <v>238</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>241</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>245</v>
+      </c>
+      <c r="J40" t="s">
+        <v>246</v>
+      </c>
+      <c r="K40" t="s">
+        <v>247</v>
+      </c>
+      <c r="L40" t="s">
+        <v>248</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>241</v>
+      </c>
+      <c r="O40" t="s">
+        <v>93</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
       </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>250</v>
+      </c>
+      <c r="J41" t="s">
+        <v>251</v>
+      </c>
+      <c r="K41" t="s">
+        <v>252</v>
+      </c>
+      <c r="L41" t="s">
+        <v>253</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>254</v>
+      </c>
+      <c r="O41" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>256</v>
+      </c>
+      <c r="J42" t="s">
+        <v>257</v>
+      </c>
+      <c r="K42" t="s">
+        <v>258</v>
+      </c>
+      <c r="L42" t="s">
+        <v>259</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>254</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>260</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>261</v>
+      </c>
+      <c r="J43" t="s">
+        <v>262</v>
+      </c>
+      <c r="K43" t="s">
+        <v>263</v>
+      </c>
+      <c r="L43" t="s">
+        <v>264</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>254</v>
+      </c>
+      <c r="O43" t="s">
+        <v>74</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>267</v>
+      </c>
+      <c r="J44" t="s">
+        <v>268</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>269</v>
+      </c>
+      <c r="O44" t="s">
+        <v>93</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>271</v>
+      </c>
+      <c r="J45" t="s">
+        <v>272</v>
+      </c>
+      <c r="K45" t="s">
+        <v>273</v>
+      </c>
+      <c r="L45" t="s">
+        <v>274</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>269</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>275</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>276</v>
+      </c>
+      <c r="J46" t="s">
+        <v>277</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>269</v>
+      </c>
+      <c r="O46" t="s">
+        <v>74</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>278</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>279</v>
+      </c>
+      <c r="J47" t="s">
+        <v>280</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>269</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>281</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>282</v>
+      </c>
+      <c r="J48" t="s">
+        <v>283</v>
+      </c>
+      <c r="K48" t="s">
+        <v>284</v>
+      </c>
+      <c r="L48" t="s">
+        <v>285</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>269</v>
+      </c>
+      <c r="O48" t="s">
+        <v>74</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>287</v>
+      </c>
+      <c r="J49" t="s">
+        <v>288</v>
+      </c>
+      <c r="K49" t="s">
+        <v>289</v>
+      </c>
+      <c r="L49" t="s">
+        <v>290</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>291</v>
+      </c>
+      <c r="O49" t="s">
+        <v>74</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>292</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>293</v>
+      </c>
+      <c r="J50" t="s">
+        <v>294</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>291</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>295</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>296</v>
+      </c>
+      <c r="J51" t="s">
+        <v>297</v>
+      </c>
+      <c r="K51" t="s">
+        <v>298</v>
+      </c>
+      <c r="L51" t="s">
+        <v>299</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>291</v>
+      </c>
+      <c r="O51" t="s">
+        <v>142</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>300</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>301</v>
+      </c>
+      <c r="J52" t="s">
+        <v>302</v>
+      </c>
+      <c r="K52" t="s">
+        <v>303</v>
+      </c>
+      <c r="L52" t="s">
+        <v>304</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>291</v>
+      </c>
+      <c r="O52" t="s">
+        <v>93</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>306</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>307</v>
+      </c>
+      <c r="J53" t="s">
+        <v>308</v>
+      </c>
+      <c r="K53" t="s">
+        <v>309</v>
+      </c>
+      <c r="L53" t="s">
+        <v>310</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>291</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>311</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>312</v>
+      </c>
+      <c r="J54" t="s">
+        <v>313</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>291</v>
+      </c>
+      <c r="O54" t="s">
+        <v>142</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>314</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>315</v>
+      </c>
+      <c r="J55" t="s">
+        <v>316</v>
+      </c>
+      <c r="K55" t="s">
+        <v>317</v>
+      </c>
+      <c r="L55" t="s">
+        <v>318</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>291</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>320</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>321</v>
+      </c>
+      <c r="J56" t="s">
+        <v>322</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>323</v>
+      </c>
+      <c r="O56" t="s">
+        <v>74</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>324</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>325</v>
+      </c>
+      <c r="J57" t="s">
+        <v>326</v>
+      </c>
+      <c r="K57" t="s">
+        <v>327</v>
+      </c>
+      <c r="L57" t="s">
+        <v>328</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>323</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>330</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>331</v>
+      </c>
+      <c r="J58" t="s">
+        <v>332</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>323</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
     </row>
   </sheetData>
 </worksheet>

--- a/data/hotels_by_city/Houston/Houston_shard_396.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_396.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,114 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r614586244-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>11695787</t>
+  </si>
+  <si>
+    <t>614586244</t>
+  </si>
+  <si>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel in NW Houston</t>
+  </si>
+  <si>
+    <t>This Hyatt Place appears to be fairly new and is well maintained.  It was clean and the staff was very friendly.  The location is kind of out of the way, but they are building a Chuy's next door which will be a nice option for staying in the future.  I would definitely stay here if visiting Houston again.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r613776899-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>613776899</t>
+  </si>
+  <si>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>Clean facility, great staff!</t>
+  </si>
+  <si>
+    <t>The facility was clean and modern. And the staff....wonderful! Ashley and Shon were the best. They made us feel welcome and were so helpful. Our room was so nice, spacious and COLD. I love a cold room. But you can always adjust the temp if you don't like a cold room. The breakfast was great (pancakes, french toast, sausage, bacon, potatoes, grits, oatmeal and various fruits, breads and yogurt). The lobby was very spacious with plenty of room to lounge and eat. They also had a nice bar with snacks and various appetizers to order. My overall experience was great for the price. Thoroughly enjoyed my stay.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r607119495-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>607119495</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>Hyatt Place - loved it</t>
+  </si>
+  <si>
+    <t>This is a new hotel.  People are awesome that work there.  Pool is open 24 hours.  Rooms are very nice and stayed cold.  I like a cold room. Very easy access to 249.  Great hotel.  I loved it and am going back again...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r603282233-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>603282233</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Nice place, friendly service, great location!</t>
+  </si>
+  <si>
+    <t>Rooms were clean and breakfast was perfect!  We would stay here again.  The location was perfect for our needs as we were attending a conference about 5 minutes away.  Staff was very accomodating to our needs.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r602262303-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>602262303</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good atmosphere </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed on this hotel a few time while at our main base in Houston. Friendly efficient staff made the stay more enjoyable. The rooms are spacious, spotlessly clean and modernA good breakfast the following morning (more powdered scrambled egg ) but all in all a good hotel providing a good service. Plenty of eateries surround the hotel so you’re not stuck for choices. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r601243993-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>11695787</t>
-  </si>
-  <si>
     <t>601243993</t>
   </si>
   <si>
@@ -171,9 +267,6 @@
     <t>The hotel seems relatively new with a gym with new equipment and a nice pool. The lobby area had a bunch of hang out places and areas to meet. Free breakfast at Hyatt beats any other hotel chain’s free breakfast.</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -207,7 +300,34 @@
     <t xml:space="preserve">Clean and well appointed. Very modern fixtures, crystal clear TV with plenty of popular channels. Comfortable bed. Staff could have been a bit more attentive, although might have been distracted by a very loud and inconsiderate group in the bar/lounge (which is literally 6 feet from the front desk, NOT a great idea). </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r598865548-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>598865548</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Very bad service</t>
+  </si>
+  <si>
+    <t>The worst hotel in my life! they did not even give us soap or the basics in hotels! They block my room all nights because they have a lot of problems... I don’t know if it’s the system or what happens in that hotel!  But if you want a hotel near this location, please take other... I do not recommend “Hyatt”</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r598658066-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>598658066</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Excellent value and high quality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand new hotel. smells and feels great. Friendly staff. we enjoyed our stay. The layout of the breakfast is a little awkward, and creates a congestion when there are a lot of people. There are TVs everywhere, so it's real convenient to watch TV in the lounge. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r596802073-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
@@ -240,9 +360,6 @@
     <t>The hotel is very convenient to St. Lukes Vintage Hospital, so we stayed there while visiting a family member in the hospital. The hotel is modern looking and staff were very friendly and helpful. Rooms were modern and clean. But there were a couple negatives. First was the door to the bathroom, it's a slider door and it was noisy. Second, the window was covered with roll down shades, one would let light in the other was a room darkening shade BUT light continued to come through a small slit between the shade and the window all night (secondary to lighting on the outside of the building.  So if you like sleeping in an entirely dark room, this isn't the hotel for you. But the thing that bothered me the most about the hotel was the proximity to Highway 248, our room had a view of the highway which was fine, BUT we heard traffic all night long.  If you do stay in this hotel request a room on the opposite side of the hotel that doesn't face the highway.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>The hotel is very convenient to St. Lukes Vintage Hospital, so we stayed there while visiting a family member in the hospital. The hotel is modern looking and staff were very friendly and helpful. Rooms were modern and clean. But there were a couple negatives. First was the door to the bathroom, it's a slider door and it was noisy. Second, the window was covered with roll down shades, one would let light in the other was a room darkening shade BUT light continued to come through a small slit between the shade and the window all night (secondary to lighting on the outside of the building.  So if you like sleeping in an entirely dark room, this isn't the hotel for you. But the thing that bothered me the most about the hotel was the proximity to Highway 248, our room had a view of the highway which was fine, BUT we heard traffic all night long.  If you do stay in this hotel request a room on the opposite side of the hotel that doesn't face the highway.More</t>
   </si>
   <si>
@@ -264,6 +381,39 @@
     <t>Recently we spent three days and two nights at this relatively new hotel and were very pleased. Ashley, the young lady at the front desk, was extremely sweet, and accommodating. The room was spacious and clean with lots of space in the bathroom. It had a very nice oversized shower with loads of space to put toiletries. There is a bar and food available in the sleek lobby area. Breakfast was included with hot and cold choices. It was very good; sausage one day and bacon the next day, roasted potatoes, cage free eggs, breads, grits, fruit, juices, etc. It was a great value, too. I would definitely return here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r594947977-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594947977</t>
+  </si>
+  <si>
+    <t>Amazingly pleasant stay!</t>
+  </si>
+  <si>
+    <t>Our expectation of this stay was average but upon our arrival we were greeted with warmth and hospitality that impressed the heck out of us! Shon was at the front desk and she knew our names and had already booked us in one of their quieter rooms. The place is immaculate. Would pass the cleanliness test for even the pickiest of travelers. Shon then explained the free breakfast, mentioned highlights of the property and we exchanged friendly conversation. :) She could not have been any nicer...seriously one of the sweetest front desk employees ever. She's a gem. Loved our room and used the fitness center everyday. It has everything you need for a good workout. Minor note - they do need to provide cups next to the water tank. Complimentary breakfast had all the options you would want. Would be nice if they kept breakfast open until 9:30am instead of 9am. Our daughter missed one day because she slept a bit later (we were on vacation so why not sleep in?). The only thing we didn't love was the sliding door from the room to the bathroom. It doesn't quite provide the privacy one may like when using the bathroom with a family of four in the room. Other than that, this place is awesome! Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>Our expectation of this stay was average but upon our arrival we were greeted with warmth and hospitality that impressed the heck out of us! Shon was at the front desk and she knew our names and had already booked us in one of their quieter rooms. The place is immaculate. Would pass the cleanliness test for even the pickiest of travelers. Shon then explained the free breakfast, mentioned highlights of the property and we exchanged friendly conversation. :) She could not have been any nicer...seriously one of the sweetest front desk employees ever. She's a gem. Loved our room and used the fitness center everyday. It has everything you need for a good workout. Minor note - they do need to provide cups next to the water tank. Complimentary breakfast had all the options you would want. Would be nice if they kept breakfast open until 9:30am instead of 9am. Our daughter missed one day because she slept a bit later (we were on vacation so why not sleep in?). The only thing we didn't love was the sliding door from the room to the bathroom. It doesn't quite provide the privacy one may like when using the bathroom with a family of four in the room. Other than that, this place is awesome! Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r591961344-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591961344</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Highly accomodating and friendly staff</t>
+  </si>
+  <si>
+    <t>I had a red-eye and checked in very early which worked well to get a quick nap and shower before my business meeting day started.  The staff was highly accomodating of my travel times, and very friendly throughout my stay.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r591511521-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -279,9 +429,6 @@
     <t>This hotel is absolutely spotless and the staff all go above and beyond to give you a big, Texas smile and help you with anything you need.  Rooms are spacious and clean and breakfast is wonderful.  Great experience!</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r591037353-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -297,9 +444,6 @@
     <t xml:space="preserve">Wonderful hotel. Very modern with great complimentary breakfast. Room has nice sitting area divided away from bed. Relaxing shower too. Gave 4 stars because room was a little warm during the night. Overall great stay. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r585662563-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -315,6 +459,36 @@
     <t>Overall stay was good.  The room was very nice and quiet, bed was comfortable.  Breakfast was very good everyday.  Room service could be improved.  Replaced towels everyday but the last day, picked up used ones and did not leave any clean towels.  Did not make the bed until the last day.  Did not change out the used cups/glasses.  Would still recommend this hotel.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r573851546-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573851546</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>coments on my stay</t>
+  </si>
+  <si>
+    <t>my wife and I reall enjoyed our stay and is looking forward to the next ocassion to stay at Hyatt's. Shan was very polite and helpful. Also she took care of all our needs while at the hotel. Shon was very knowable and efficient.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r573641960-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573641960</t>
+  </si>
+  <si>
+    <t>A very good hotel I trust.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay in Hyatt place Houston NW Vintage Park during 6th Apr ~13Apr 2018, every thing is good, and room is clean, staff are very cordial that impressed me a lot. I would like to recommend my friends or my family to stay in Hyatt. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r570578449-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -363,6 +537,36 @@
     <t>Great location. New building. Good complimentary breakfast, Wifi has good connnection.The staff and service were AMAZING! They were always welcoming &amp; eager to help. Thank you all! I highly recommend this hotel!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r567981615-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567981615</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Feels New after the flood</t>
+  </si>
+  <si>
+    <t>Hit by Harvey this Hyatt Place was closed for awhile but now that it’s reopened it feels and smells brand new.  Large rooms, comfy beds, huge showers, complimentary breakfast and friendly service, it’s a solid choice if you need to be in the area for business.One drawback, the pool is so close to the highway can’t imagine you could ever relax.  And the bar is boring, but so close to Vintage Park there’s plenty of options. I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r566161505-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566161505</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Great stay in Houston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was very pleased with the overall experience at this hotel! The staff was friendly and helpful and very accommodating. Room was large and very comfortable. Recommend upgrading to the king suite. Conveniently located in Houston. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r565705501-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -378,9 +582,6 @@
     <t>I stay 2 weeks there, each week there is one day no room service, no one came to clean my room, I got to worry is my room cleaned everyday I back there. And that door is with visible gap with door frame, can hear noise very loud from the room.</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r557245703-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -414,6 +615,36 @@
     <t xml:space="preserve">The room was just what my family of 4 needed. We slept well, enjoyed the shower, and had a delicious breakfast. We will stay here again when we're in Houston next time, and we will recommend this hotel to friends. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r555236776-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555236776</t>
+  </si>
+  <si>
+    <t>Great hotel and feel, needs better staff</t>
+  </si>
+  <si>
+    <t>Hotel looked great and the room was perfect at first.  Check in was great.  Stayed out with friends for a big gym meet and got the kids to bed and everything else went downhill.  Power was out to the refrigerator and bedroom TV.  We paid extra to have these and luckily we did not stay both night or we might have been packing up to change rooms.  In the morning the provided breakfast looked great when I loaded the car.  Then by 7:30am food was running out as well as everything else.  No juice, utensils and cups.  The staff showed no sense of urgency to get these items refilled for the guests including all the groups needing to leave by 8:15 for the gym meet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel looked great and the room was perfect at first.  Check in was great.  Stayed out with friends for a big gym meet and got the kids to bed and everything else went downhill.  Power was out to the refrigerator and bedroom TV.  We paid extra to have these and luckily we did not stay both night or we might have been packing up to change rooms.  In the morning the provided breakfast looked great when I loaded the car.  Then by 7:30am food was running out as well as everything else.  No juice, utensils and cups.  The staff showed no sense of urgency to get these items refilled for the guests including all the groups needing to leave by 8:15 for the gym meet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r554243378-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554243378</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>One of the nicer hotels of this class in the area</t>
+  </si>
+  <si>
+    <t>The regular room rate is a bit expensive but  when you find a good price, this hotel is worth the stay. It's clean, modern, and the staff seem pretty good.  The breakfast was better than average.  My biggest criticism is that with 4 pillows on each bed I wish they would have a couple different types of pillows to choose from.  I found the ones they had were a bit too puffy for me.  Other than that I enjoyed my stay.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r553818494-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -459,6 +690,39 @@
     <t>This location is perfect for shopping and restaurants without having to go into Houston.  The rooms are very comfortable and the amenities are great as well - because of this we have stayed here several times and wouldn't think twice about coming back.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r551887717-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551887717</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Very Average Hyatt</t>
+  </si>
+  <si>
+    <t>I will try another hotel on next trip. I expected much more from an Hyatt property. Disappointing cold breakfast. No good service at the breakfast room. Staff not bothered. Front office staff was nice</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r548833889-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548833889</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t>Very clean but t a little cramped</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 queen with sofa bed and it was a very small space compared to previous stays at other Hyatt Place hotels. Staff was nice and the room was clean. The kids were a bit cramped and would have liked waffles.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r548472856-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -495,9 +759,6 @@
     <t>This hotel has gone up in price about $30 since the flood in Houston last August.  False smoke alarm went off at 5:30 a.m.  There was  no notification from staff about whether or not to leave or stay (some people went up and down 4 - 5 flights of stairs because elevators were shut down at the time).   Also, only one pot of regular coffee available for large hotel.  The kitchen staff was not attentive and when asked to refill pot, was rude and brought back a pot with "colored" water in it.  Will not stay here again.</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r544116305-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -513,6 +774,27 @@
     <t>So new and comforting. Update atmosphere and warm. Pet friendly and very clean. The breakfast was delicious, fresh and hot. Loved it and it was reasonably priced. The hotel was well lit made me feel safe!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r544115886-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544115886</t>
+  </si>
+  <si>
+    <t>Maid Service Sucked!!!</t>
+  </si>
+  <si>
+    <t>Do you really want me to use 200 words about my stay and this property?For real??Maid service sucked beyond belief.  Didn’t clean on time.  Had to complain to the front desk.  Maids finally showed very late in the day and barely cleaned. Floor wasn’t vacuumed, used towels were left behind, place stunk after they left.  NEVER STAY THERE!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r543945386-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543945386</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r543743798-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -561,18 +843,39 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r519741398-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519741398</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r516006186-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516006186</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Beautiful hotel; terrible breakfast</t>
+  </si>
+  <si>
+    <t>This hotel is truly lovely to look at and comfortable to stay in.  However, if I were to recommend it, I would also warn my friends to find another place to eat breakfast even though the breakfast is free.  It's not worth it.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r516147445-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
     <t>516147445</t>
   </si>
   <si>
-    <t>08/21/2017</t>
-  </si>
-  <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r515067726-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -597,6 +900,42 @@
     <t xml:space="preserve">The Hotel was in the perfect location for me to get to where I needed to be without having to rush. The room was in great condition and was better than I had expected, incredibly comfortable and had the perfect desk space I needed to tend to my business. Staff was very helpful with providing information regarding extending my stay an extra day and the overall experience was great. I will definitely be returning  </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r510524882-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510524882</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>New hotel, nice rooms and reasonable price. Service inconsistent. Breakfast problems.</t>
+  </si>
+  <si>
+    <t>Have stayed here 3 times. Overall nice enough rooms, lobby, etc., even alcohol, reasonable price for area, but this time they were out of coffee and orange juice at 8:15/8:30 am for the breakfast (I tried twice), which otherwise has ok variety. Asking didn't help at all. Didn't email my receipt last time as requested. Printer down this time. Last time there were noisy guests on my floor late at night. Small inconveniences adding up. Not a bad value but will probably stay elsewhere next time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r509172917-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509172917</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>My stay at Hyatt Place Houston NW Vintage Park</t>
+  </si>
+  <si>
+    <t>This is a newly constructed hotel.  Everything very clean and neat.  Room was very big with refrigerator, and coffee machine.  The beds were very comfortable and clean.Free WiFi was very usefulIn the lounge area there were couple of PC's for surfing the web and to get the boarding pass printed.Free breakfast was offered but tasted horrible. The french toast, waffles and potato tater tots were very dry .  They could have provided better breakfast.   The housekeeping maids don't speak English.  Difficult to communicate with them.There are no separate entry and exit for vehicles to come to the facility.  The common entrance exit was very narrow.  Every time we came back to the hotel we missed the entrance and had to go around to try again..MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>This is a newly constructed hotel.  Everything very clean and neat.  Room was very big with refrigerator, and coffee machine.  The beds were very comfortable and clean.Free WiFi was very usefulIn the lounge area there were couple of PC's for surfing the web and to get the boarding pass printed.Free breakfast was offered but tasted horrible. The french toast, waffles and potato tater tots were very dry .  They could have provided better breakfast.   The housekeeping maids don't speak English.  Difficult to communicate with them.There are no separate entry and exit for vehicles to come to the facility.  The common entrance exit was very narrow.  Every time we came back to the hotel we missed the entrance and had to go around to try again..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r507983203-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -606,9 +945,6 @@
     <t>08/01/2017</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r507650383-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -636,6 +972,30 @@
     <t>The hotel was very accommodating as I made reservations for the wrong date; he immediately corrected the error and checked us in.  I always check the beds and bathroom upon entering the room.  I pulled the covers back on the bed and sure enough there was a long black hair suggesting the sheets were not changed.  I asked that they be changed immediately, but housekeeping was gone and we changed rooms instead.  The breakfast was really good (waffles, sausage links, fruit, toast, cereal, potatoes, eggs).  I also loved the fact we were able to enjoy our breakfast on the patio!! The only drawback to breakfast was they started pulling breakfast items 10 mins early.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r506047306-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506047306</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r505687871-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505687871</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r505346381-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -681,6 +1041,30 @@
     <t>The location is a bit further from the city center but it is also cheaper then some of the properties closer to the city.  The property is clean and the rooms are pretty large.  My only complain was about the breakfast.  The hotel was pretty booked when we were there and the staff seemed to be overwhelmed.  They were unable to keep up with the pace of the amount of the guests that were there in the morning.  So, many items for breakfast ran out.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r502595416-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502595416</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Not helpful hotel with waiting for home or apartment to be ready.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certain staff needs recognition and other staff needs to be removed or spoken to by other exceptional staff. Overall Hotel appearance was Awesome and rooms were great. Slept great and with the exceptional staff I enjoyed my stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r504076346-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504076346</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r501702125-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -726,6 +1110,36 @@
     <t xml:space="preserve">Perfect location . Bed was incredibly comfortable . Close to cute shopping center and stores . Staff was unfriendly during check in . Breakfast options and availability was poor . The rate was great for the room . </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r490757138-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490757138</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwanshae, Jacquan, Kyanna, and Brianne were phenomenal. We stayed at the hotel this past weekend for a soccer tournament. We have 22 fifteen year old girls on the roster. And those 4 girls on staff went above and beyond to make sure our girls had what they needed, and then some...Super rare to find one person who actually cares about customer service anymore. And Hyatt Vintage Park is lucky enough to have 4.  We will be back in Nov for another tournament and we MOST DEFINITELY will be staying there. Do what you have to do to keep those 4 girls.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r489738773-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489738773</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Not a good 1st impression</t>
+  </si>
+  <si>
+    <t>After my arrival I was told my reservation thru Expedia had inexplicably been cancelled but I could rebook at the regular rate which was much more. It took me 40 minutes on the phone with an agent for the hotel to honor the reservation. To add insult to injury upon turning down the bed I found someones hair. Yuck to the whole experience.  Not impressed and will not use again in the future.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r489208171-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -765,6 +1179,27 @@
     <t>Gorgeous and clean property. Awesome breakfast.  It has black out curtains, but the road noise from 249 was pretty loud.  The beds were very nice and comfortable.  It would have been nice to have a bath tub.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r484541937-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484541937</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r483575760-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483575760</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r478587575-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -780,9 +1215,6 @@
     <t xml:space="preserve">We stayed here for a weekend visit to Houston to see Cirque Du Soleil Kurios. The hotel is new and very nice. Would definitely stay here again.  The only complaint I had was some of the front desk staff and Gallery host were a little rude. </t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r474846816-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -816,6 +1248,33 @@
     <t>I Booked a double room for Myself and My Family! It was Really Nice. It was the Perfect amount of space for all Of Us. There is also Morning Breakfast that was very good with a vast variety of breakfast treats. The Staff was very Nice, and very Helpful. We enjoyed our stay so well we Booked another Night! The Hyatt also has a Laundry room where you can wash Your clothing for just $.25 which I thought was awesome. We were actually 30 minutes away from all the Events we were attending, which was fine it gave us a chance to see Houston. We Enjoyed Our stay and will stay again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r473738109-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473738109</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r472614144-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472614144</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>It's a good business hotel, but there is not much locally to look at.  There are some restaurants about 10 mins walk which were good.The hotel had a good bar and the staff  were very good and helpful.Breakfast as always is very American.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r473305765-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -852,6 +1311,30 @@
     <t>03/22/2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r469765856-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469765856</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r467388898-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467388898</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Outstanding hotel and staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the moment of arrival, to the moment of check out.., we experienced a fabulous time! Everything was on point and staff was very attentive &amp; professional.  Guest rooms are very spacious, clean and comfortable.  </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r467981575-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -891,7 +1374,28 @@
     <t>Staff does not pay attention to detail. Staff does not respond to room maintenance requests. Staff does not clean room well. Overall experience on scale of 1 to 10 with one being negative I would rate 3.</t>
   </si>
   <si>
-    <t>February 2017</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r461864924-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461864924</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand new hotel. Rooms still smell new. Excellent friendly staff who greeted me every time I came in the door. Comfortable bed. The food is good and available 24/7. Breakfast staff was very friendly and helpful. Overall stay was excellent. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r461813390-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461813390</t>
+  </si>
+  <si>
+    <t>Short trip.</t>
+  </si>
+  <si>
+    <t>Great hotel, good location. Lots to do around hotel. Ask for room on the back side of the hotel not facing the freeway if you want a little more quite.very friendly staff. Extremely clean hotel and rooms with plenty of electrical outlets.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r461338003-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
@@ -936,6 +1440,33 @@
     <t>This hotel is brand new and very modern in style. Staff was very helpful. They offer wine and mixed drinks and have a small bar. There is a small kitchen that offers some food choices 24hrs a day. My only disappointment in this hotel was the Breakfast. There were very few choices and non of it was tasty, so we only ate there one time. The room was perfect. Bed was comfortable, multiple pillows, soft linens. Bathroom very trendy with big shower. Everything was very clean and kept that way all week by the housekeeping staff.  I would have given this hotel 5 stars if not for the Breakfast. If they fix that, this place will be the top spot to stay in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r462393353-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462393353</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r459812302-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459812302</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Superbowl and new friends!</t>
+  </si>
+  <si>
+    <t>The front desk agent, Lacey, was warm and welcoming upon arrival as well as the other staff we interacted with throughout our stay. After checking in Lacey asked if there was anything else she could help us with, I said tickets, thinking this would be impossible. With a big smile she said two people just checked in and had two extras. If it wasn't for her connecting us with these guests, my friends and I would not have met two new friends that we not only had a fun weekend with but have also planned a trip to get together later this summer and fall!The rooms were comfortable and clean, it was nice to have breakfast each morning.Although about 30 minutes outside of the Galleria area it was easy to get downtown by car.MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk agent, Lacey, was warm and welcoming upon arrival as well as the other staff we interacted with throughout our stay. After checking in Lacey asked if there was anything else she could help us with, I said tickets, thinking this would be impossible. With a big smile she said two people just checked in and had two extras. If it wasn't for her connecting us with these guests, my friends and I would not have met two new friends that we not only had a fun weekend with but have also planned a trip to get together later this summer and fall!The rooms were comfortable and clean, it was nice to have breakfast each morning.Although about 30 minutes outside of the Galleria area it was easy to get downtown by car.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r458454991-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1509,39 @@
     <t>Needed a nice place to rest my weary head.  Just landed late in Houston and had to drive out near College Station in the morning.I wanted a three star or better hotel within reason.  The hotel checked all the boxes. Clean, comfortable, quite, not crazy expensive. Overall I was well pleased. I like the decor in the room and in the bath especially.  I prefer no bath tub and a good shower. If you need a tub it is not the best, or they might have rooms with a tub. Like most breakfasts that come included it was very pedestrian.  I dont understand why they bother if they are not going to include better health options. My review stops here and the rest is just filler for the 200 work requirement.Now I am just getting angry at trip advisor.  I want my review to count but really.... unless you only want people that have a litany of complaints to list making 200 words a requirement is counter productive.  People are not going to say the place is nice if the just dont have that much to say, and it is worth while to get the opinions of everyone. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r457686316-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457686316</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location.  Friendly staff always making sure your satisfied.  Treated like family during all interactions.  Rooms are big, clean facility, workout room, and pool.  Check in and out was a breeze.  Definitely stay again. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r456272667-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456272667</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean and everyone is so nice. Perfect location to the all and all kinds of eating places. This is the perfect spot for a single trip, couples trip, or family trip. The breakfast every morning was great. The staff is pleasant and helpful and again the cleanliness is superb. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r456088341-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -987,9 +1551,6 @@
     <t>01/29/2017</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r452156233-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1576,36 @@
   </si>
   <si>
     <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r450781773-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450781773</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent New Clean. Jack's top rated</t>
+  </si>
+  <si>
+    <t>Excellent stay; immaculate room, free wifi, breakfast was great, real coffee Seattle's Best, heated pool 80 degrees or more, gym, close to restaurants &amp; shops, security guard at night (very safe area). Great staff; Leslie, Lacy, Liza!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11695787-r448341868-Hyatt_Place_Houston_NW_Vintage_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448341868</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Short trip to visit family and friends hotel was a great choice, new and clean. Front desk staff was professional and responsive to needs, just off interstate close to shopping center with many good chosen for food and drink</t>
+  </si>
+  <si>
+    <t>December 2016</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +2155,7 @@
         <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -1607,25 +2198,35 @@
         <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1648,7 +2249,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1657,41 +2258,41 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
         <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
         <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1699,7 +2300,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1715,7 +2316,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1724,34 +2325,38 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
         <v>65</v>
       </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
-      </c>
       <c r="P5" t="n">
         <v>5</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
       </c>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -1762,7 +2367,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1778,7 +2383,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1787,45 +2392,39 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1841,7 +2440,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1850,34 +2449,38 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
       <c r="R7" t="n">
         <v>5</v>
       </c>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>5</v>
@@ -1888,7 +2491,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -1904,7 +2507,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1913,49 +2516,35 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1971,7 +2560,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1980,41 +2569,41 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
         <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2022,7 +2611,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -2059,30 +2648,20 @@
         <v>98</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -2129,10 +2708,10 @@
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2172,34 +2751,34 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
         <v>105</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>106</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>107</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>108</v>
       </c>
-      <c r="L12" t="s">
-        <v>109</v>
-      </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2207,12 +2786,8 @@
       <c r="Q12" t="n">
         <v>5</v>
       </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2223,7 +2798,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -2239,44 +2814,40 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
         <v>110</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>111</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>112</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>113</v>
       </c>
-      <c r="L13" t="s">
-        <v>114</v>
-      </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
         <v>5</v>
       </c>
@@ -2327,29 +2898,25 @@
         <v>119</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
         <v>5</v>
       </c>
-      <c r="S14" t="n">
-        <v>2</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2357,7 +2924,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -2385,38 +2952,34 @@
         <v>122</v>
       </c>
       <c r="J15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" t="s">
         <v>123</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>124</v>
       </c>
-      <c r="L15" t="s">
-        <v>125</v>
-      </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2440,34 +3003,34 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
         <v>127</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>128</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>129</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>130</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>131</v>
       </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>126</v>
-      </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2491,7 +3054,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
@@ -2528,29 +3091,29 @@
         <v>136</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
         <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2595,29 +3158,29 @@
         <v>141</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O18" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2641,19 +3204,19 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
         <v>143</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>144</v>
-      </c>
-      <c r="J19" t="s">
-        <v>139</v>
       </c>
       <c r="K19" t="s">
         <v>145</v>
@@ -2665,16 +3228,16 @@
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
         <v>5</v>
@@ -2684,7 +3247,7 @@
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2729,20 +3292,26 @@
         <v>151</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
         <v>152</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2753,7 +3322,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
@@ -2769,50 +3338,50 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
         <v>154</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" t="s">
         <v>155</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>156</v>
       </c>
-      <c r="K21" t="s">
-        <v>157</v>
-      </c>
-      <c r="L21" t="s">
-        <v>158</v>
-      </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2820,7 +3389,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
@@ -2836,34 +3405,34 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" t="s">
         <v>160</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>161</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>162</v>
       </c>
-      <c r="K22" t="s">
-        <v>163</v>
-      </c>
-      <c r="L22" t="s">
-        <v>164</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>152</v>
-      </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2887,7 +3456,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23">
@@ -2903,50 +3472,50 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
         <v>165</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>166</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>167</v>
       </c>
-      <c r="K23" t="s">
-        <v>168</v>
-      </c>
-      <c r="L23" t="s">
-        <v>169</v>
-      </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
         <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2954,7 +3523,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
@@ -2970,48 +3539,58 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" t="s">
         <v>170</v>
       </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>171</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>172</v>
       </c>
-      <c r="K24" t="s">
-        <v>173</v>
-      </c>
-      <c r="L24" t="s">
-        <v>174</v>
-      </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
@@ -3027,58 +3606,48 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" t="s">
         <v>175</v>
       </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>176</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>177</v>
       </c>
-      <c r="K25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L25" t="s">
-        <v>179</v>
-      </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
@@ -3094,30 +3663,34 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" t="s">
         <v>181</v>
       </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>182</v>
       </c>
-      <c r="J26" t="s">
-        <v>183</v>
-      </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="O26" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3140,7 +3713,9 @@
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
+      <c r="Y26" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3155,53 +3730,59 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" t="s">
         <v>185</v>
       </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>186</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>187</v>
       </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
         <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
+      <c r="Y27" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3237,29 +3818,29 @@
         <v>192</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="O28" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3283,30 +3864,34 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>193</v>
       </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
-        <v>194</v>
-      </c>
-      <c r="J29" t="s">
-        <v>195</v>
-      </c>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>196</v>
-      </c>
       <c r="O29" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3329,7 +3914,9 @@
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
+      <c r="Y29" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3344,7 +3931,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3353,33 +3940,37 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J30" t="s">
-        <v>199</v>
-      </c>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
+        <v>196</v>
+      </c>
+      <c r="K30" t="s">
+        <v>201</v>
+      </c>
+      <c r="L30" t="s">
+        <v>202</v>
+      </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3390,7 +3981,9 @@
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
+      <c r="Y30" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3405,7 +3998,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3414,34 +4007,34 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="J31" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K31" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O31" t="s">
-        <v>74</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>3</v>
@@ -3452,7 +4045,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32">
@@ -3468,7 +4061,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3477,41 +4070,41 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J32" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K32" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L32" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O32" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
         <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3519,7 +4112,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33">
@@ -3535,7 +4128,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3544,41 +4137,41 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J33" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K33" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O33" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3586,7 +4179,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34">
@@ -3602,44 +4195,50 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>221</v>
+      </c>
+      <c r="J34" t="s">
         <v>216</v>
       </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" t="s">
-        <v>217</v>
-      </c>
-      <c r="J34" t="s">
-        <v>218</v>
-      </c>
       <c r="K34" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
       <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3647,7 +4246,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
@@ -3663,7 +4262,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3672,31 +4271,31 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J35" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K35" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="L35" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O35" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
         <v>3</v>
@@ -3706,7 +4305,7 @@
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3714,7 +4313,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36">
@@ -3730,7 +4329,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3739,41 +4338,41 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J36" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K36" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S36" t="n">
         <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3781,7 +4380,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37">
@@ -3797,7 +4396,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3806,41 +4405,35 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J37" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K37" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L37" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="O37" t="s">
-        <v>74</v>
-      </c>
-      <c r="P37" t="n">
+        <v>65</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
         <v>4</v>
       </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3848,7 +4441,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38">
@@ -3864,7 +4457,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3873,41 +4466,41 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="J38" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K38" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L38" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="O38" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3915,7 +4508,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39">
@@ -3931,7 +4524,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -3940,21 +4533,25 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J39" t="s">
-        <v>238</v>
-      </c>
-      <c r="K39" t="s"/>
-      <c r="L39" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="K39" t="s">
+        <v>250</v>
+      </c>
+      <c r="L39" t="s">
+        <v>251</v>
+      </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -3977,7 +4574,9 @@
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
+      <c r="Y39" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3992,7 +4591,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4001,41 +4600,41 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="J40" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K40" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L40" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>240</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
         <v>3</v>
       </c>
-      <c r="N40" t="s">
-        <v>241</v>
-      </c>
-      <c r="O40" t="s">
-        <v>93</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4043,7 +4642,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
@@ -4059,7 +4658,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4068,40 +4667,42 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="J41" t="s">
-        <v>251</v>
-      </c>
-      <c r="K41" t="s">
-        <v>252</v>
-      </c>
-      <c r="L41" t="s">
-        <v>253</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="O41" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
-      <c r="Y41" t="s">
-        <v>253</v>
-      </c>
+      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4116,7 +4717,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4125,41 +4726,41 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J42" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K42" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L42" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="O42" t="s">
         <v>52</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
         <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4167,7 +4768,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
@@ -4183,7 +4784,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4192,45 +4793,39 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="J43" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K43" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L43" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="O43" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P43" t="s"/>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44">
@@ -4246,7 +4841,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4255,44 +4850,50 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J44" t="s">
-        <v>268</v>
-      </c>
-      <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
+        <v>271</v>
+      </c>
+      <c r="K44" t="s">
+        <v>272</v>
+      </c>
+      <c r="L44" t="s">
+        <v>273</v>
+      </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O44" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
+      <c r="Y44" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4307,7 +4908,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4316,50 +4917,44 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J45" t="s">
-        <v>272</v>
-      </c>
-      <c r="K45" t="s">
-        <v>273</v>
-      </c>
-      <c r="L45" t="s">
-        <v>274</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
         <v>4</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
-      <c r="Y45" t="s">
-        <v>274</v>
-      </c>
+      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4374,7 +4969,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4383,21 +4978,25 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J46" t="s">
-        <v>277</v>
-      </c>
-      <c r="K46" t="s"/>
-      <c r="L46" t="s"/>
+        <v>281</v>
+      </c>
+      <c r="K46" t="s">
+        <v>282</v>
+      </c>
+      <c r="L46" t="s">
+        <v>283</v>
+      </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O46" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4409,18 +5008,20 @@
         <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
+      <c r="Y46" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4435,7 +5036,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4444,10 +5045,10 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="J47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -4455,10 +5056,10 @@
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4496,7 +5097,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4505,25 +5106,21 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="J48" t="s">
-        <v>283</v>
-      </c>
-      <c r="K48" t="s">
-        <v>284</v>
-      </c>
-      <c r="L48" t="s">
-        <v>285</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O48" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4546,9 +5143,7 @@
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
-      <c r="Y48" t="s">
-        <v>285</v>
-      </c>
+      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4563,7 +5158,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4572,41 +5167,41 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J49" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K49" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L49" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="O49" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4614,7 +5209,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50">
@@ -4630,7 +5225,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -4639,44 +5234,44 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J50" t="s">
-        <v>294</v>
-      </c>
-      <c r="K50" t="s"/>
-      <c r="L50" t="s"/>
+        <v>296</v>
+      </c>
+      <c r="K50" t="s">
+        <v>297</v>
+      </c>
+      <c r="L50" t="s">
+        <v>298</v>
+      </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
-      <c r="Y50" t="s"/>
+      <c r="Y50" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4691,7 +5286,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -4700,35 +5295,37 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J51" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K51" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L51" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="O51" t="s">
-        <v>142</v>
-      </c>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -4736,7 +5333,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
@@ -4752,7 +5349,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -4761,40 +5358,44 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="J52" t="s">
-        <v>302</v>
-      </c>
-      <c r="K52" t="s">
-        <v>303</v>
-      </c>
-      <c r="L52" t="s">
+        <v>308</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
         <v>304</v>
       </c>
-      <c r="M52" t="n">
-        <v>4</v>
-      </c>
-      <c r="N52" t="s">
-        <v>291</v>
-      </c>
       <c r="O52" t="s">
-        <v>93</v>
-      </c>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
-      <c r="Y52" t="s">
-        <v>305</v>
-      </c>
+      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4809,7 +5410,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -4818,50 +5419,44 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J53" t="s">
-        <v>308</v>
-      </c>
-      <c r="K53" t="s">
-        <v>309</v>
-      </c>
-      <c r="L53" t="s">
-        <v>310</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
-      <c r="Y53" t="s">
-        <v>310</v>
-      </c>
+      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4876,7 +5471,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -4885,44 +5480,46 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J54" t="s">
-        <v>313</v>
-      </c>
-      <c r="K54" t="s"/>
-      <c r="L54" t="s"/>
+        <v>314</v>
+      </c>
+      <c r="K54" t="s">
+        <v>315</v>
+      </c>
+      <c r="L54" t="s">
+        <v>316</v>
+      </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="O54" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
+      <c r="Y54" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4937,7 +5534,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -4946,41 +5543,39 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J55" t="s">
-        <v>316</v>
-      </c>
-      <c r="K55" t="s">
-        <v>317</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
         <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
       </c>
       <c r="R55" t="n">
         <v>4</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -4988,7 +5583,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56">
@@ -5004,7 +5599,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5013,37 +5608,37 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J56" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="O56" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5065,7 +5660,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5074,34 +5669,38 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J57" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K57" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L57" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
       </c>
-      <c r="Q57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
       <c r="R57" t="n">
         <v>5</v>
       </c>
-      <c r="S57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
         <v>5</v>
@@ -5112,7 +5711,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58">
@@ -5128,7 +5727,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5137,30 +5736,34 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J58" t="s">
-        <v>332</v>
-      </c>
-      <c r="K58" t="s"/>
-      <c r="L58" t="s"/>
+        <v>333</v>
+      </c>
+      <c r="K58" t="s">
+        <v>334</v>
+      </c>
+      <c r="L58" t="s">
+        <v>335</v>
+      </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
         <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -5174,7 +5777,2744 @@
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
+      <c r="Y58" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>336</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>337</v>
+      </c>
+      <c r="J59" t="s">
+        <v>338</v>
+      </c>
+      <c r="K59" t="s">
+        <v>339</v>
+      </c>
+      <c r="L59" t="s">
+        <v>340</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>304</v>
+      </c>
+      <c r="O59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>341</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>342</v>
+      </c>
+      <c r="J60" t="s">
+        <v>343</v>
+      </c>
+      <c r="K60" t="s">
+        <v>344</v>
+      </c>
+      <c r="L60" t="s">
+        <v>345</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>304</v>
+      </c>
+      <c r="O60" t="s">
+        <v>65</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>346</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>347</v>
+      </c>
+      <c r="J61" t="s">
+        <v>348</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s">
+        <v>321</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>304</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>349</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>350</v>
+      </c>
+      <c r="J62" t="s">
+        <v>351</v>
+      </c>
+      <c r="K62" t="s">
+        <v>315</v>
+      </c>
+      <c r="L62" t="s">
+        <v>352</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>304</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>353</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>354</v>
+      </c>
+      <c r="J63" t="s">
+        <v>355</v>
+      </c>
+      <c r="K63" t="s">
+        <v>356</v>
+      </c>
+      <c r="L63" t="s">
+        <v>357</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>358</v>
+      </c>
+      <c r="O63" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>359</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>360</v>
+      </c>
+      <c r="J64" t="s">
+        <v>361</v>
+      </c>
+      <c r="K64" t="s">
+        <v>362</v>
+      </c>
+      <c r="L64" t="s">
+        <v>363</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>358</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>364</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>365</v>
+      </c>
+      <c r="J65" t="s">
+        <v>366</v>
+      </c>
+      <c r="K65" t="s">
+        <v>367</v>
+      </c>
+      <c r="L65" t="s">
+        <v>368</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>358</v>
+      </c>
+      <c r="O65" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>369</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>370</v>
+      </c>
+      <c r="J66" t="s">
+        <v>371</v>
+      </c>
+      <c r="K66" t="s">
+        <v>372</v>
+      </c>
+      <c r="L66" t="s">
+        <v>373</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>358</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>374</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>375</v>
+      </c>
+      <c r="J67" t="s">
+        <v>376</v>
+      </c>
+      <c r="K67" t="s">
+        <v>377</v>
+      </c>
+      <c r="L67" t="s">
+        <v>378</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>379</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>380</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>381</v>
+      </c>
+      <c r="J68" t="s">
+        <v>376</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>379</v>
+      </c>
+      <c r="O68" t="s">
+        <v>65</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>382</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>383</v>
+      </c>
+      <c r="J69" t="s">
+        <v>384</v>
+      </c>
+      <c r="K69" t="s">
+        <v>385</v>
+      </c>
+      <c r="L69" t="s">
+        <v>386</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>379</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>387</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>388</v>
+      </c>
+      <c r="J70" t="s">
+        <v>389</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>379</v>
+      </c>
+      <c r="O70" t="s">
+        <v>65</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>390</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>391</v>
+      </c>
+      <c r="J71" t="s">
+        <v>392</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>393</v>
+      </c>
+      <c r="O71" t="s">
+        <v>219</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>394</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>395</v>
+      </c>
+      <c r="J72" t="s">
+        <v>396</v>
+      </c>
+      <c r="K72" t="s">
+        <v>397</v>
+      </c>
+      <c r="L72" t="s">
+        <v>398</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>393</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>399</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>400</v>
+      </c>
+      <c r="J73" t="s">
+        <v>401</v>
+      </c>
+      <c r="K73" t="s">
+        <v>402</v>
+      </c>
+      <c r="L73" t="s">
+        <v>403</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>393</v>
+      </c>
+      <c r="O73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>404</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>405</v>
+      </c>
+      <c r="J74" t="s">
+        <v>406</v>
+      </c>
+      <c r="K74" t="s">
+        <v>407</v>
+      </c>
+      <c r="L74" t="s">
+        <v>408</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>393</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>410</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>411</v>
+      </c>
+      <c r="J75" t="s">
+        <v>412</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>393</v>
+      </c>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>413</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>414</v>
+      </c>
+      <c r="J76" t="s">
+        <v>415</v>
+      </c>
+      <c r="K76" t="s">
+        <v>416</v>
+      </c>
+      <c r="L76" t="s">
+        <v>417</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>418</v>
+      </c>
+      <c r="O76" t="s">
+        <v>65</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>419</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>420</v>
+      </c>
+      <c r="J77" t="s">
+        <v>421</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>422</v>
+      </c>
+      <c r="O77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>423</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>424</v>
+      </c>
+      <c r="J78" t="s">
+        <v>425</v>
+      </c>
+      <c r="K78" t="s">
+        <v>426</v>
+      </c>
+      <c r="L78" t="s">
+        <v>427</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>422</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>428</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>429</v>
+      </c>
+      <c r="J79" t="s">
+        <v>430</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>422</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>431</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>432</v>
+      </c>
+      <c r="J80" t="s">
+        <v>433</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>422</v>
+      </c>
+      <c r="O80" t="s">
+        <v>65</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>434</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>435</v>
+      </c>
+      <c r="J81" t="s">
+        <v>436</v>
+      </c>
+      <c r="K81" t="s">
+        <v>437</v>
+      </c>
+      <c r="L81" t="s">
+        <v>438</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>422</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>439</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>440</v>
+      </c>
+      <c r="J82" t="s">
+        <v>441</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>422</v>
+      </c>
+      <c r="O82" t="s">
+        <v>65</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>442</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>443</v>
+      </c>
+      <c r="J83" t="s">
+        <v>444</v>
+      </c>
+      <c r="K83" t="s">
+        <v>445</v>
+      </c>
+      <c r="L83" t="s">
+        <v>446</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>422</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>447</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>448</v>
+      </c>
+      <c r="J84" t="s">
+        <v>449</v>
+      </c>
+      <c r="K84" t="s">
+        <v>450</v>
+      </c>
+      <c r="L84" t="s">
+        <v>451</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>418</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>452</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>453</v>
+      </c>
+      <c r="J85" t="s">
+        <v>454</v>
+      </c>
+      <c r="K85" t="s">
+        <v>329</v>
+      </c>
+      <c r="L85" t="s">
+        <v>455</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>418</v>
+      </c>
+      <c r="O85" t="s">
+        <v>65</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>456</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>457</v>
+      </c>
+      <c r="J86" t="s">
+        <v>454</v>
+      </c>
+      <c r="K86" t="s">
+        <v>458</v>
+      </c>
+      <c r="L86" t="s">
+        <v>459</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>418</v>
+      </c>
+      <c r="O86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>460</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>461</v>
+      </c>
+      <c r="J87" t="s">
+        <v>462</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>418</v>
+      </c>
+      <c r="O87" t="s">
+        <v>65</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>463</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>464</v>
+      </c>
+      <c r="J88" t="s">
+        <v>465</v>
+      </c>
+      <c r="K88" t="s">
+        <v>466</v>
+      </c>
+      <c r="L88" t="s">
+        <v>467</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>418</v>
+      </c>
+      <c r="O88" t="s">
+        <v>219</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>468</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>469</v>
+      </c>
+      <c r="J89" t="s">
+        <v>470</v>
+      </c>
+      <c r="K89" t="s">
+        <v>471</v>
+      </c>
+      <c r="L89" t="s">
+        <v>472</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>418</v>
+      </c>
+      <c r="O89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>474</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>475</v>
+      </c>
+      <c r="J90" t="s">
+        <v>476</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>418</v>
+      </c>
+      <c r="O90" t="s">
+        <v>59</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>477</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>478</v>
+      </c>
+      <c r="J91" t="s">
+        <v>479</v>
+      </c>
+      <c r="K91" t="s">
+        <v>480</v>
+      </c>
+      <c r="L91" t="s">
+        <v>481</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>418</v>
+      </c>
+      <c r="O91" t="s">
+        <v>83</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>483</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>484</v>
+      </c>
+      <c r="J92" t="s">
+        <v>485</v>
+      </c>
+      <c r="K92" t="s">
+        <v>486</v>
+      </c>
+      <c r="L92" t="s">
+        <v>487</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>418</v>
+      </c>
+      <c r="O92" t="s">
+        <v>83</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>488</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>489</v>
+      </c>
+      <c r="J93" t="s">
+        <v>490</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>418</v>
+      </c>
+      <c r="O93" t="s">
+        <v>219</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>491</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>492</v>
+      </c>
+      <c r="J94" t="s">
+        <v>493</v>
+      </c>
+      <c r="K94" t="s">
+        <v>494</v>
+      </c>
+      <c r="L94" t="s">
+        <v>495</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>418</v>
+      </c>
+      <c r="O94" t="s">
+        <v>65</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>497</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>498</v>
+      </c>
+      <c r="J95" t="s">
+        <v>499</v>
+      </c>
+      <c r="K95" t="s">
+        <v>500</v>
+      </c>
+      <c r="L95" t="s">
+        <v>501</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>502</v>
+      </c>
+      <c r="O95" t="s">
+        <v>65</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>503</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>504</v>
+      </c>
+      <c r="J96" t="s">
+        <v>505</v>
+      </c>
+      <c r="K96" t="s">
+        <v>506</v>
+      </c>
+      <c r="L96" t="s">
+        <v>507</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>502</v>
+      </c>
+      <c r="O96" t="s">
+        <v>52</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>508</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>509</v>
+      </c>
+      <c r="J97" t="s">
+        <v>510</v>
+      </c>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s"/>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>502</v>
+      </c>
+      <c r="O97" t="s">
+        <v>52</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>511</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>512</v>
+      </c>
+      <c r="J98" t="s">
+        <v>513</v>
+      </c>
+      <c r="K98" t="s">
+        <v>514</v>
+      </c>
+      <c r="L98" t="s">
+        <v>515</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>502</v>
+      </c>
+      <c r="O98" t="s">
+        <v>65</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>517</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>518</v>
+      </c>
+      <c r="J99" t="s">
+        <v>519</v>
+      </c>
+      <c r="K99" t="s"/>
+      <c r="L99" t="s"/>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>502</v>
+      </c>
+      <c r="O99" t="s">
+        <v>65</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>520</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>521</v>
+      </c>
+      <c r="J100" t="s">
+        <v>522</v>
+      </c>
+      <c r="K100" t="s">
+        <v>523</v>
+      </c>
+      <c r="L100" t="s">
+        <v>524</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>502</v>
+      </c>
+      <c r="O100" t="s">
+        <v>65</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>65597</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>525</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>526</v>
+      </c>
+      <c r="J101" t="s">
+        <v>527</v>
+      </c>
+      <c r="K101" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101" t="s">
+        <v>528</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>529</v>
+      </c>
+      <c r="O101" t="s">
+        <v>52</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>528</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
